--- a/MISA.Amis/MISA.Amis.API/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.Amis/MISA.Amis.API/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>DANH SÁCH NHÂN VIÊN</t>
   </si>
@@ -44,606 +44,913 @@
     <t>Tên ngân hàng</t>
   </si>
   <si>
+    <t>NV-0559</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Đức</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>28/01/1992</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>Phòng đào tạo</t>
+  </si>
+  <si>
+    <t>962521680</t>
+  </si>
+  <si>
+    <t>Agribank</t>
+  </si>
+  <si>
+    <t>NV-0558</t>
+  </si>
+  <si>
+    <t>HOÀNG NAM</t>
+  </si>
+  <si>
+    <t>01/01/1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhân viên </t>
+  </si>
+  <si>
+    <t>Phòng kế toán</t>
+  </si>
+  <si>
+    <t>8745245</t>
+  </si>
+  <si>
+    <t>VCB</t>
+  </si>
+  <si>
+    <t>NV-2174</t>
+  </si>
+  <si>
+    <t>Hoàng Thùy Linh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>03/08/2001</t>
+  </si>
+  <si>
+    <t>Giám đốc sở</t>
+  </si>
+  <si>
+    <t>Phòng công nghệ</t>
+  </si>
+  <si>
+    <t>098436456</t>
+  </si>
+  <si>
+    <t>NV-2184</t>
+  </si>
+  <si>
+    <t>Hoàng Phi Hồng</t>
+  </si>
+  <si>
+    <t>10/11/1999</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Phòng nhân sự</t>
+  </si>
+  <si>
+    <t>8032507345</t>
+  </si>
+  <si>
+    <t>NV-2185</t>
+  </si>
+  <si>
+    <t>Phúc LK</t>
+  </si>
+  <si>
+    <t>9076786</t>
+  </si>
+  <si>
+    <t>Techcombank</t>
+  </si>
+  <si>
+    <t>NV-2186</t>
+  </si>
+  <si>
+    <t>NV-2188</t>
+  </si>
+  <si>
+    <t>NV-2029</t>
+  </si>
+  <si>
+    <t>Đoàn Tuấn Minh</t>
+  </si>
+  <si>
+    <t>01/08/2000</t>
+  </si>
+  <si>
+    <t>709452</t>
+  </si>
+  <si>
+    <t>Nam Á</t>
+  </si>
+  <si>
+    <t>NV-0557</t>
+  </si>
+  <si>
+    <t>Mai Long Nhật</t>
+  </si>
+  <si>
+    <t>NV-2025</t>
+  </si>
+  <si>
+    <t>NV-2180</t>
+  </si>
+  <si>
+    <t>Đoàn Danh Hưng</t>
+  </si>
+  <si>
+    <t>04/08/1997</t>
+  </si>
+  <si>
+    <t>FrontEnd Developer</t>
+  </si>
+  <si>
+    <t>98242534</t>
+  </si>
+  <si>
+    <t>NV-2181</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Hưng</t>
+  </si>
+  <si>
+    <t>03/01/2002</t>
+  </si>
+  <si>
+    <t>Phó Phòng</t>
+  </si>
+  <si>
+    <t>8734924395</t>
+  </si>
+  <si>
+    <t>NV-2182</t>
+  </si>
+  <si>
+    <t>Đào Đình Hào</t>
+  </si>
+  <si>
+    <t>02/01/2001</t>
+  </si>
+  <si>
+    <t>GĐ</t>
+  </si>
+  <si>
+    <t>87420504</t>
+  </si>
+  <si>
+    <t>NV-0556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lam_x000D_
+</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>9803482</t>
+  </si>
+  <si>
+    <t>NV-2183</t>
+  </si>
+  <si>
+    <t>Đỗ Mạnh Hà</t>
+  </si>
+  <si>
+    <t>984592345</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>NV-2179</t>
+  </si>
+  <si>
+    <t>Hoàng Diễm Giang</t>
+  </si>
+  <si>
+    <t>Không xác định</t>
+  </si>
+  <si>
+    <t>16/11/1966</t>
+  </si>
+  <si>
+    <t>Bảo vệ</t>
+  </si>
+  <si>
+    <t>6863450419</t>
+  </si>
+  <si>
+    <t>ACB Bank</t>
+  </si>
+  <si>
+    <t>NV-2178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Tuấn </t>
+  </si>
+  <si>
+    <t>11/04/1955</t>
+  </si>
+  <si>
+    <t>6093866085</t>
+  </si>
+  <si>
+    <t>VietinBank</t>
+  </si>
+  <si>
+    <t>NV-2177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thái Tuấn </t>
+  </si>
+  <si>
+    <t>17/05/1953</t>
+  </si>
+  <si>
+    <t>1762013613</t>
+  </si>
+  <si>
+    <t>NV-2176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Hương </t>
+  </si>
+  <si>
+    <t>16/01/1979</t>
+  </si>
+  <si>
+    <t>3117077059</t>
+  </si>
+  <si>
+    <t>NV-2175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nông Thái Hoàng </t>
+  </si>
+  <si>
+    <t>13/01/1956</t>
+  </si>
+  <si>
+    <t>1738170303</t>
+  </si>
+  <si>
+    <t>NV-2173</t>
+  </si>
+  <si>
+    <t>Lê Khắc Tùng</t>
+  </si>
+  <si>
+    <t>23/05/2000</t>
+  </si>
+  <si>
+    <t>Phòng tài chính</t>
+  </si>
+  <si>
+    <t>tunglk</t>
+  </si>
+  <si>
+    <t>NV-2172</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Giang</t>
+  </si>
+  <si>
+    <t>28/11/1959</t>
+  </si>
+  <si>
+    <t>5556961507</t>
+  </si>
+  <si>
+    <t>NV-2171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Bằng </t>
+  </si>
+  <si>
+    <t>05/02/1993</t>
+  </si>
+  <si>
+    <t>0931941437</t>
+  </si>
+  <si>
+    <t>TP Bank</t>
+  </si>
+  <si>
+    <t>NV-2170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Văn Cường </t>
+  </si>
+  <si>
+    <t>03/03/1951</t>
+  </si>
+  <si>
+    <t>6055355976</t>
+  </si>
+  <si>
+    <t>NV-2169</t>
+  </si>
+  <si>
+    <t>Nguyễn Diễm Ngọc</t>
+  </si>
+  <si>
+    <t>07/01/1951</t>
+  </si>
+  <si>
+    <t>7355767374</t>
+  </si>
+  <si>
+    <t>NV-2168</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Hường</t>
+  </si>
+  <si>
+    <t>18/05/2000</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>7225477671</t>
+  </si>
+  <si>
+    <t>NV-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Minh Bằng </t>
+  </si>
+  <si>
+    <t>30/11/1966</t>
+  </si>
+  <si>
+    <t>0765346213</t>
+  </si>
+  <si>
+    <t>NV-2166</t>
+  </si>
+  <si>
+    <t>Hoàng Hà</t>
+  </si>
+  <si>
+    <t>12/08/1999</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>Vietinbank</t>
+  </si>
+  <si>
+    <t>NV-2165</t>
+  </si>
+  <si>
+    <t>Đoàn Hoàng Anh</t>
+  </si>
+  <si>
+    <t>01/02/2000</t>
+  </si>
+  <si>
+    <t>Lập Trình C#</t>
+  </si>
+  <si>
+    <t>7682542</t>
+  </si>
+  <si>
+    <t>Bắc Việt</t>
+  </si>
+  <si>
     <t>NV-2164</t>
   </si>
   <si>
-    <t>Lê quý nhật check 1 to delelte</t>
-  </si>
-  <si>
-    <t>Nam</t>
+    <t>HOÀNG MAI</t>
+  </si>
+  <si>
+    <t>20/10/1998</t>
+  </si>
+  <si>
+    <t>390-35463</t>
+  </si>
+  <si>
+    <t>BIDV</t>
+  </si>
+  <si>
+    <t>NV-2163</t>
+  </si>
+  <si>
+    <t>Quế Ngọc Hải</t>
+  </si>
+  <si>
+    <t>80879</t>
+  </si>
+  <si>
+    <t>NV-2162</t>
+  </si>
+  <si>
+    <t>NV-2161</t>
+  </si>
+  <si>
+    <t>NV-2160</t>
+  </si>
+  <si>
+    <t>Bùi tiến dũng</t>
+  </si>
+  <si>
+    <t>10/11/1998</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>897079</t>
+  </si>
+  <si>
+    <t>VP bank</t>
+  </si>
+  <si>
+    <t>NV-2159</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Hằng</t>
+  </si>
+  <si>
+    <t>10/02/2000</t>
+  </si>
+  <si>
+    <t>BE Developer</t>
+  </si>
+  <si>
+    <t>89456-4</t>
+  </si>
+  <si>
+    <t>AGRE</t>
+  </si>
+  <si>
+    <t>NV-2158</t>
+  </si>
+  <si>
+    <t>NV-2022</t>
+  </si>
+  <si>
+    <t>Hoàng Nam</t>
+  </si>
+  <si>
+    <t>19/05/1999</t>
+  </si>
+  <si>
+    <t>Front End DV</t>
+  </si>
+  <si>
+    <t>90852340</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>NV-2015</t>
+  </si>
+  <si>
+    <t>NV-2149</t>
+  </si>
+  <si>
+    <t>Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>Ca sỹ</t>
+  </si>
+  <si>
+    <t>035693</t>
+  </si>
+  <si>
+    <t>Việt Tin</t>
+  </si>
+  <si>
+    <t>NV-1009</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ MInh Quân</t>
+  </si>
+  <si>
+    <t>01/09/2021</t>
+  </si>
+  <si>
+    <t>800234895</t>
+  </si>
+  <si>
+    <t>NV-2157</t>
+  </si>
+  <si>
+    <t>Phạm Thị Trang</t>
+  </si>
+  <si>
+    <t>07/08/1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giám Đốc </t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>NV-2155</t>
+  </si>
+  <si>
+    <t>Lê THị ÁNh</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công Nhân </t>
+  </si>
+  <si>
+    <t>8927</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>NV-2156</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>NHân viên</t>
+  </si>
+  <si>
+    <t>bvn</t>
+  </si>
+  <si>
+    <t>NV-2153</t>
+  </si>
+  <si>
+    <t>Lê Khắc Phúc</t>
+  </si>
+  <si>
+    <t>09/08/2021</t>
+  </si>
+  <si>
+    <t>NV-2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Long Vũ </t>
+  </si>
+  <si>
+    <t>21/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2010</t>
+  </si>
+  <si>
+    <t>Hoàng Hùng</t>
+  </si>
+  <si>
+    <t>24/02/2000</t>
+  </si>
+  <si>
+    <t>NV-2013</t>
+  </si>
+  <si>
+    <t>NV-2024</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Nhật</t>
+  </si>
+  <si>
+    <t>02/01/2000</t>
+  </si>
+  <si>
+    <t>98252345</t>
+  </si>
+  <si>
+    <t>NV-2146</t>
+  </si>
+  <si>
+    <t>Trần Nhật Duẩn</t>
+  </si>
+  <si>
+    <t>12/08/1992</t>
+  </si>
+  <si>
+    <t>Chủ cửa hàng</t>
+  </si>
+  <si>
+    <t>5432425</t>
+  </si>
+  <si>
+    <t>NV-2000</t>
+  </si>
+  <si>
+    <t>NV-2026</t>
+  </si>
+  <si>
+    <t>Hoàng Mai</t>
+  </si>
+  <si>
+    <t>07/08/2001</t>
+  </si>
+  <si>
+    <t>lephuc0125@gmail.com</t>
+  </si>
+  <si>
+    <t>vietcom</t>
+  </si>
+  <si>
+    <t>NV-1011</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>NV-2144</t>
+  </si>
+  <si>
+    <t>NV-2012</t>
+  </si>
+  <si>
+    <t>Hải Nam</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NV-2003</t>
+  </si>
+  <si>
+    <t>NV-2001</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Tuấn</t>
+  </si>
+  <si>
+    <t>NV-2151</t>
+  </si>
+  <si>
+    <t>NV-2027</t>
+  </si>
+  <si>
+    <t>NV-2150</t>
+  </si>
+  <si>
+    <t>03/01/1990</t>
+  </si>
+  <si>
+    <t>NV-2002</t>
+  </si>
+  <si>
+    <t>Trần Trí Tùng</t>
+  </si>
+  <si>
+    <t>02/05/1994</t>
+  </si>
+  <si>
+    <t>768567</t>
+  </si>
+  <si>
+    <t>NamVuong</t>
+  </si>
+  <si>
+    <t>NV-2017</t>
+  </si>
+  <si>
+    <t>Lê Khắc Lộc</t>
+  </si>
+  <si>
+    <t>NV-2145</t>
+  </si>
+  <si>
+    <t>NV-2011</t>
+  </si>
+  <si>
+    <t>Phí Hoàng Long</t>
+  </si>
+  <si>
+    <t>NV-2018</t>
+  </si>
+  <si>
+    <t>Lê Khắc Bình</t>
+  </si>
+  <si>
+    <t>NV-2016</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Sáng</t>
+  </si>
+  <si>
+    <t>NV-2023</t>
+  </si>
+  <si>
+    <t>Nam ANH</t>
+  </si>
+  <si>
+    <t>7686987</t>
+  </si>
+  <si>
+    <t>NV-2152</t>
+  </si>
+  <si>
+    <t>Phương Ớt</t>
+  </si>
+  <si>
+    <t>NV-2019</t>
+  </si>
+  <si>
+    <t>Minh Anh</t>
+  </si>
+  <si>
+    <t>01/05/2001</t>
+  </si>
+  <si>
+    <t>minhanh</t>
+  </si>
+  <si>
+    <t>agrebank</t>
+  </si>
+  <si>
+    <t>NV-2143</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Giám</t>
+  </si>
+  <si>
+    <t>9080364</t>
+  </si>
+  <si>
+    <t>VietCom</t>
+  </si>
+  <si>
+    <t>NV-2021</t>
+  </si>
+  <si>
+    <t>Hà Hoàng</t>
+  </si>
+  <si>
+    <t>11/05/1999</t>
+  </si>
+  <si>
+    <t>Phó tổng</t>
+  </si>
+  <si>
+    <t>324525</t>
+  </si>
+  <si>
+    <t>VietComBank</t>
+  </si>
+  <si>
+    <t>NV-2014</t>
+  </si>
+  <si>
+    <t>Đoàn Thanh Sáng</t>
+  </si>
+  <si>
+    <t>09/05/2000</t>
+  </si>
+  <si>
+    <t>sangdt</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>NV-2020</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>01/08/2010</t>
+  </si>
+  <si>
+    <t>704563</t>
+  </si>
+  <si>
+    <t>NV-2154</t>
+  </si>
+  <si>
+    <t>NV-2005</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>NV-2034</t>
+  </si>
+  <si>
+    <t>Nguyễn đức thắng</t>
+  </si>
+  <si>
+    <t>03/08/2021</t>
+  </si>
+  <si>
+    <t>NV-2038</t>
+  </si>
+  <si>
+    <t>NV-2037</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Bộ trưởng bộ ngọa giao</t>
+  </si>
+  <si>
+    <t>NV-2030</t>
+  </si>
+  <si>
+    <t>Ngô Hoàng Thinh</t>
+  </si>
+  <si>
+    <t>NV-2035</t>
+  </si>
+  <si>
+    <t>Trần xuân tùng</t>
+  </si>
+  <si>
+    <t>Nhân viên kinh doanh</t>
+  </si>
+  <si>
+    <t>NV-2031</t>
+  </si>
+  <si>
+    <t>Lê Thị Mão</t>
+  </si>
+  <si>
+    <t>01/08/1990</t>
+  </si>
+  <si>
+    <t>NV-2033</t>
+  </si>
+  <si>
+    <t>Hoàng hoa thám</t>
+  </si>
+  <si>
+    <t>03/07/1972</t>
+  </si>
+  <si>
+    <t>9843456</t>
+  </si>
+  <si>
+    <t>NV-2036</t>
+  </si>
+  <si>
+    <t>03/02/1998</t>
+  </si>
+  <si>
+    <t>0433890618</t>
+  </si>
+  <si>
+    <t>NV-2066</t>
+  </si>
+  <si>
+    <t>NV-2039</t>
+  </si>
+  <si>
+    <t>Mai long nhật</t>
+  </si>
+  <si>
+    <t>NV-2032</t>
+  </si>
+  <si>
+    <t>Lê Khắc Khang</t>
+  </si>
+  <si>
+    <t>NV-1000</t>
+  </si>
+  <si>
+    <t>Lê quý nhật</t>
   </si>
   <si>
     <t>26/08/2021</t>
   </si>
   <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>Phòng nhân sự</t>
-  </si>
-  <si>
     <t>973452345</t>
   </si>
   <si>
-    <t>Techcombank</t>
-  </si>
-  <si>
-    <t>NV-2163</t>
-  </si>
-  <si>
-    <t>NV-1009</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ MInh Quân</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>Phòng tài chính</t>
-  </si>
-  <si>
-    <t>NV-2162</t>
-  </si>
-  <si>
-    <t>Phúc 2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>NV-2161</t>
-  </si>
-  <si>
-    <t>Phúc</t>
-  </si>
-  <si>
-    <t>31/08/2021</t>
-  </si>
-  <si>
-    <t>Phòng kế toán</t>
-  </si>
-  <si>
-    <t>NV-2160</t>
-  </si>
-  <si>
-    <t>NV-2159</t>
-  </si>
-  <si>
-    <t>Lê quý nhật check 1</t>
-  </si>
-  <si>
-    <t>NV-2158</t>
-  </si>
-  <si>
-    <t>Lê quý nhật check</t>
-  </si>
-  <si>
-    <t>NV-2157</t>
-  </si>
-  <si>
-    <t>Phạm Thị Trang</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>07/08/1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giám Đốc </t>
-  </si>
-  <si>
-    <t>banana</t>
-  </si>
-  <si>
-    <t>VP bank</t>
-  </si>
-  <si>
-    <t>NV-2155</t>
-  </si>
-  <si>
-    <t>Lê THị ÁNh</t>
-  </si>
-  <si>
-    <t>04/08/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Công Nhân </t>
-  </si>
-  <si>
-    <t>8927</t>
-  </si>
-  <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>NV-2156</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Bình</t>
-  </si>
-  <si>
-    <t>01/01/2002</t>
-  </si>
-  <si>
-    <t>NHân viên</t>
-  </si>
-  <si>
-    <t>bvn</t>
-  </si>
-  <si>
-    <t>NV-2018</t>
-  </si>
-  <si>
-    <t>Lê Khắc Bình</t>
-  </si>
-  <si>
-    <t>10/11/1999</t>
-  </si>
-  <si>
-    <t>NV-2024</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Nhật</t>
-  </si>
-  <si>
-    <t>Không xác định</t>
-  </si>
-  <si>
-    <t>02/01/2000</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
-  </si>
-  <si>
-    <t>98252345</t>
-  </si>
-  <si>
-    <t>NV-2022</t>
-  </si>
-  <si>
-    <t>Hoàng Nam</t>
-  </si>
-  <si>
-    <t>NV-2000</t>
-  </si>
-  <si>
-    <t>Hoàng Hà</t>
-  </si>
-  <si>
-    <t>12/08/1999</t>
-  </si>
-  <si>
-    <t>haha</t>
-  </si>
-  <si>
-    <t>Vietinbank</t>
-  </si>
-  <si>
-    <t>NV-2005</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Tuấn</t>
-  </si>
-  <si>
-    <t>08/08/2016</t>
-  </si>
-  <si>
-    <t>NV-2010</t>
-  </si>
-  <si>
-    <t>Hoàng Hùng</t>
-  </si>
-  <si>
-    <t>24/02/2000</t>
-  </si>
-  <si>
-    <t>Phòng công nghệ</t>
-  </si>
-  <si>
-    <t>NV-2151</t>
-  </si>
-  <si>
-    <t>Trần Nhật Duẩn</t>
-  </si>
-  <si>
-    <t>12/08/1992</t>
-  </si>
-  <si>
-    <t>Chủ cửa hàng</t>
-  </si>
-  <si>
-    <t>5432425</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>NV-2146</t>
-  </si>
-  <si>
-    <t>NV-2012</t>
-  </si>
-  <si>
-    <t>Hải Nam</t>
-  </si>
-  <si>
-    <t>NV-2016</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Sáng</t>
-  </si>
-  <si>
-    <t>NV-2014</t>
-  </si>
-  <si>
-    <t>Đoàn Thanh Sáng</t>
-  </si>
-  <si>
-    <t>09/05/2000</t>
-  </si>
-  <si>
-    <t>sangdt</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>NV-2023</t>
-  </si>
-  <si>
-    <t>Nam ANH</t>
-  </si>
-  <si>
-    <t>7686987</t>
-  </si>
-  <si>
-    <t>NV-2150</t>
-  </si>
-  <si>
-    <t>Đàm Vĩnh Hưng</t>
-  </si>
-  <si>
-    <t>03/01/1990</t>
-  </si>
-  <si>
-    <t>Ca sỹ</t>
-  </si>
-  <si>
-    <t>NV-2143</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Giám</t>
-  </si>
-  <si>
-    <t>9080364</t>
-  </si>
-  <si>
-    <t>VietCom</t>
-  </si>
-  <si>
-    <t>NV-2003</t>
-  </si>
-  <si>
-    <t>HOÀNG MAI</t>
-  </si>
-  <si>
-    <t>20/10/1998</t>
-  </si>
-  <si>
-    <t>390-35463</t>
-  </si>
-  <si>
-    <t>BIDV</t>
-  </si>
-  <si>
-    <t>NV-2027</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>NV-2011</t>
-  </si>
-  <si>
-    <t>Phí Hoàng Long</t>
-  </si>
-  <si>
-    <t>NV-2154</t>
-  </si>
-  <si>
-    <t>Lê Khắc Tùng</t>
-  </si>
-  <si>
-    <t>23/05/2000</t>
-  </si>
-  <si>
-    <t>tunglk</t>
-  </si>
-  <si>
-    <t>Agribank</t>
-  </si>
-  <si>
-    <t>NV-2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Long Vũ </t>
-  </si>
-  <si>
-    <t>21/02/2000</t>
-  </si>
-  <si>
-    <t>NV-2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhân viên </t>
-  </si>
-  <si>
-    <t>NV-2145</t>
-  </si>
-  <si>
-    <t>NV-2025</t>
-  </si>
-  <si>
-    <t>Hoàng Anh Đức</t>
-  </si>
-  <si>
-    <t>28/01/1992</t>
-  </si>
-  <si>
-    <t>Phòng đào tạo</t>
-  </si>
-  <si>
-    <t>962521680</t>
-  </si>
-  <si>
-    <t>NV-2152</t>
-  </si>
-  <si>
-    <t>Phương Ớt</t>
-  </si>
-  <si>
-    <t>NV-2020</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Anh Thư</t>
-  </si>
-  <si>
-    <t>01/08/2010</t>
-  </si>
-  <si>
-    <t>704563</t>
-  </si>
-  <si>
-    <t>NV-2153</t>
-  </si>
-  <si>
-    <t>Lê Khắc Phúc</t>
-  </si>
-  <si>
-    <t>09/08/2021</t>
-  </si>
-  <si>
-    <t>NV-2019</t>
-  </si>
-  <si>
-    <t>Minh Anh</t>
-  </si>
-  <si>
-    <t>01/05/2001</t>
-  </si>
-  <si>
-    <t>minhanh</t>
-  </si>
-  <si>
-    <t>agrebank</t>
-  </si>
-  <si>
-    <t>NV-2013</t>
-  </si>
-  <si>
-    <t>NV-2026</t>
-  </si>
-  <si>
-    <t>Hoàng Mai</t>
-  </si>
-  <si>
-    <t>07/08/2001</t>
-  </si>
-  <si>
-    <t>lephuc0125@gmail.com</t>
-  </si>
-  <si>
-    <t>vietcom</t>
-  </si>
-  <si>
-    <t>NV-2029</t>
-  </si>
-  <si>
-    <t>Đoàn Tuấn Minh</t>
-  </si>
-  <si>
-    <t>NV-2015</t>
-  </si>
-  <si>
-    <t>Đoàn Hoàng Anh</t>
-  </si>
-  <si>
-    <t>01/02/2000</t>
-  </si>
-  <si>
-    <t>7682542</t>
-  </si>
-  <si>
-    <t>Bắc Việt</t>
-  </si>
-  <si>
-    <t>NV-2002</t>
-  </si>
-  <si>
-    <t>Trần Trí Tùng</t>
-  </si>
-  <si>
-    <t>02/05/1994</t>
-  </si>
-  <si>
-    <t>768567</t>
-  </si>
-  <si>
-    <t>NamVuong</t>
-  </si>
-  <si>
-    <t>NV-2144</t>
-  </si>
-  <si>
-    <t>NV-2149</t>
-  </si>
-  <si>
-    <t>035693</t>
-  </si>
-  <si>
-    <t>Việt Tin</t>
-  </si>
-  <si>
-    <t>NV-2021</t>
-  </si>
-  <si>
-    <t>Hà Hoàng</t>
-  </si>
-  <si>
-    <t>11/05/1999</t>
-  </si>
-  <si>
-    <t>Phó tổng</t>
-  </si>
-  <si>
-    <t>324525</t>
-  </si>
-  <si>
-    <t>VietComBank</t>
-  </si>
-  <si>
-    <t>NV-1011</t>
-  </si>
-  <si>
-    <t>NV-2017</t>
-  </si>
-  <si>
-    <t>Lê Khắc Lộc</t>
-  </si>
-  <si>
-    <t>NV-2032</t>
-  </si>
-  <si>
-    <t>Lê Khắc Khang</t>
-  </si>
-  <si>
-    <t>NV-2035</t>
-  </si>
-  <si>
-    <t>Trần xuân tùng</t>
-  </si>
-  <si>
-    <t>Nhân viên kinh doanh</t>
-  </si>
-  <si>
-    <t>NV-2038</t>
-  </si>
-  <si>
-    <t>Hoàng Thùy Linh</t>
-  </si>
-  <si>
-    <t>03/08/2021</t>
-  </si>
-  <si>
-    <t>Giám đốc sở</t>
-  </si>
-  <si>
-    <t>098436456</t>
-  </si>
-  <si>
-    <t>NV-2039</t>
-  </si>
-  <si>
-    <t>Mai long nhật</t>
-  </si>
-  <si>
-    <t>NV-2033</t>
-  </si>
-  <si>
-    <t>Hoàng hoa thám</t>
-  </si>
-  <si>
-    <t>03/07/1972</t>
-  </si>
-  <si>
-    <t>9843456</t>
-  </si>
-  <si>
-    <t>NV-2036</t>
-  </si>
-  <si>
-    <t>03/02/1998</t>
-  </si>
-  <si>
-    <t>0433890618</t>
-  </si>
-  <si>
-    <t>NV-2030</t>
-  </si>
-  <si>
-    <t>Ngô Hoàng Thinh</t>
-  </si>
-  <si>
-    <t>NV-2034</t>
-  </si>
-  <si>
-    <t>Nguyễn đức thắng</t>
-  </si>
-  <si>
-    <t>NV-2031</t>
-  </si>
-  <si>
-    <t>Lê Thị Mão</t>
-  </si>
-  <si>
-    <t>01/08/1990</t>
-  </si>
-  <si>
-    <t>NV-2066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nông Thái Hoàng </t>
-  </si>
-  <si>
-    <t>13/01/1956</t>
-  </si>
-  <si>
-    <t>Bảo vệ</t>
-  </si>
-  <si>
-    <t>1738170303</t>
-  </si>
-  <si>
-    <t>VietinBank</t>
-  </si>
-  <si>
-    <t>NV-2037</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>Bộ trưởng bộ ngọa giao</t>
-  </si>
-  <si>
-    <t>NV-1000</t>
-  </si>
-  <si>
-    <t>Lê quý nhật</t>
-  </si>
-  <si>
     <t>NV-2072</t>
   </si>
   <si>
@@ -728,15 +1035,6 @@
     <t>NV-2055</t>
   </si>
   <si>
-    <t>Nguyễn Mai Giang</t>
-  </si>
-  <si>
-    <t>28/11/1959</t>
-  </si>
-  <si>
-    <t>5556961507</t>
-  </si>
-  <si>
     <t>NV-2079</t>
   </si>
   <si>
@@ -758,15 +1056,9 @@
     <t>14/08/1985</t>
   </si>
   <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
     <t>2612073323</t>
   </si>
   <si>
-    <t>ACB Bank</t>
-  </si>
-  <si>
     <t>NV-2075</t>
   </si>
   <si>
@@ -779,9 +1071,6 @@
     <t>0848823251</t>
   </si>
   <si>
-    <t>TP Bank</t>
-  </si>
-  <si>
     <t>NV-1384</t>
   </si>
   <si>
@@ -830,15 +1119,6 @@
     <t>NV-2051</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Minh Bằng </t>
-  </si>
-  <si>
-    <t>30/11/1966</t>
-  </si>
-  <si>
-    <t>0765346213</t>
-  </si>
-  <si>
     <t>NV-2044</t>
   </si>
   <si>
@@ -902,15 +1182,6 @@
     <t>NV-0638</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Ngọc Hương </t>
-  </si>
-  <si>
-    <t>16/01/1979</t>
-  </si>
-  <si>
-    <t>3117077059</t>
-  </si>
-  <si>
     <t>NV-2073</t>
   </si>
   <si>
@@ -938,27 +1209,9 @@
     <t>NV-2053</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Văn Bằng </t>
-  </si>
-  <si>
-    <t>05/02/1993</t>
-  </si>
-  <si>
-    <t>0931941437</t>
-  </si>
-  <si>
     <t>NV-2043</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Thái Tuấn </t>
-  </si>
-  <si>
-    <t>17/05/1953</t>
-  </si>
-  <si>
-    <t>1762013613</t>
-  </si>
-  <si>
     <t>NV-2063</t>
   </si>
   <si>
@@ -1016,27 +1269,9 @@
     <t>NV-0812</t>
   </si>
   <si>
-    <t>Trịnh Thị Hường</t>
-  </si>
-  <si>
-    <t>18/05/2000</t>
-  </si>
-  <si>
-    <t>7225477671</t>
-  </si>
-  <si>
     <t>NV-2065</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoàng Văn Cường </t>
-  </si>
-  <si>
-    <t>03/03/1951</t>
-  </si>
-  <si>
-    <t>6055355976</t>
-  </si>
-  <si>
     <t>NV-2069</t>
   </si>
   <si>
@@ -1064,84 +1299,114 @@
     <t>2145449011</t>
   </si>
   <si>
+    <t>NV-0946</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Giang</t>
+  </si>
+  <si>
+    <t>22/02/1981</t>
+  </si>
+  <si>
+    <t>5876963492</t>
+  </si>
+  <si>
+    <t>NV-2040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Việt Trường </t>
+  </si>
+  <si>
+    <t>06/01/1957</t>
+  </si>
+  <si>
+    <t>3397539967</t>
+  </si>
+  <si>
+    <t>NV-2071</t>
+  </si>
+  <si>
+    <t>Mai Mai Lệ</t>
+  </si>
+  <si>
+    <t>21/08/1980</t>
+  </si>
+  <si>
+    <t>5762209788</t>
+  </si>
+  <si>
+    <t>NV-2060</t>
+  </si>
+  <si>
+    <t>NV-2046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thái Trường </t>
+  </si>
+  <si>
+    <t>20/11/1966</t>
+  </si>
+  <si>
+    <t>0285044887</t>
+  </si>
+  <si>
+    <t>NV-2047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
+  </si>
+  <si>
+    <t>4058750103</t>
+  </si>
+  <si>
+    <t>NV-1288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trân Việt Ngọc </t>
+  </si>
+  <si>
+    <t>23/02/1977</t>
+  </si>
+  <si>
+    <t>9197881406</t>
+  </si>
+  <si>
+    <t>NV-2078</t>
+  </si>
+  <si>
+    <t>Võ Mai Giang</t>
+  </si>
+  <si>
+    <t>07/07/1989</t>
+  </si>
+  <si>
+    <t>9565830750</t>
+  </si>
+  <si>
+    <t>NV-2068</t>
+  </si>
+  <si>
+    <t>27/02/1963</t>
+  </si>
+  <si>
+    <t>1694933476</t>
+  </si>
+  <si>
+    <t>NV-2059</t>
+  </si>
+  <si>
+    <t>06/03/1961</t>
+  </si>
+  <si>
+    <t>0683728810</t>
+  </si>
+  <si>
     <t>NV-2049</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Việt Tuấn </t>
-  </si>
-  <si>
-    <t>11/04/1955</t>
-  </si>
-  <si>
-    <t>6093866085</t>
-  </si>
-  <si>
-    <t>NV-2060</t>
-  </si>
-  <si>
-    <t>Nguyễn Diễm Ngọc</t>
-  </si>
-  <si>
-    <t>07/01/1951</t>
-  </si>
-  <si>
-    <t>7355767374</t>
-  </si>
-  <si>
-    <t>NV-2078</t>
-  </si>
-  <si>
-    <t>Võ Mai Giang</t>
-  </si>
-  <si>
-    <t>07/07/1989</t>
-  </si>
-  <si>
-    <t>9565830750</t>
-  </si>
-  <si>
     <t>NV-2076</t>
   </si>
   <si>
-    <t>Hoàng Diễm Giang</t>
-  </si>
-  <si>
-    <t>16/11/1966</t>
-  </si>
-  <si>
-    <t>6863450419</t>
-  </si>
-  <si>
-    <t>NV-2047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Tuấn </t>
-  </si>
-  <si>
-    <t>4058750103</t>
-  </si>
-  <si>
-    <t>NV-2059</t>
-  </si>
-  <si>
-    <t>06/03/1961</t>
-  </si>
-  <si>
-    <t>0683728810</t>
-  </si>
-  <si>
-    <t>NV-0946</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Giang</t>
-  </si>
-  <si>
-    <t>22/02/1981</t>
-  </si>
-  <si>
-    <t>5876963492</t>
-  </si>
-  <si>
     <t>NV-2062</t>
   </si>
   <si>
@@ -1152,63 +1417,6 @@
   </si>
   <si>
     <t>0685862914</t>
-  </si>
-  <si>
-    <t>NV-2071</t>
-  </si>
-  <si>
-    <t>Mai Mai Lệ</t>
-  </si>
-  <si>
-    <t>21/08/1980</t>
-  </si>
-  <si>
-    <t>5762209788</t>
-  </si>
-  <si>
-    <t>NV-1288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trân Việt Ngọc </t>
-  </si>
-  <si>
-    <t>23/02/1977</t>
-  </si>
-  <si>
-    <t>9197881406</t>
-  </si>
-  <si>
-    <t>NV-2040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Việt Trường </t>
-  </si>
-  <si>
-    <t>06/01/1957</t>
-  </si>
-  <si>
-    <t>3397539967</t>
-  </si>
-  <si>
-    <t>NV-2068</t>
-  </si>
-  <si>
-    <t>27/02/1963</t>
-  </si>
-  <si>
-    <t>1694933476</t>
-  </si>
-  <si>
-    <t>NV-2046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thái Trường </t>
-  </si>
-  <si>
-    <t>20/11/1966</t>
-  </si>
-  <si>
-    <t>0285044887</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1510,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.777589797973633" customWidth="1"/>
-    <col min="3" max="3" width="27.41799545288086" customWidth="1"/>
+    <col min="3" max="3" width="21.971195220947266" customWidth="1"/>
     <col min="4" max="4" width="15.198502540588379" customWidth="1"/>
     <col min="5" max="5" width="11.2464017868042" customWidth="1"/>
     <col min="6" max="6" width="21.944595336914062" customWidth="1"/>
@@ -1406,25 +1614,25 @@
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1">
@@ -1432,98 +1640,112 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" s="3" customFormat="1">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" s="3" customFormat="1">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" s="3" customFormat="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>17</v>
@@ -1534,25 +1756,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
@@ -1563,28 +1785,28 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1">
@@ -1592,28 +1814,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="I12" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1">
@@ -1621,28 +1843,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1">
@@ -1650,28 +1872,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1">
@@ -1679,53 +1901,57 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" s="3" customFormat="1">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1">
@@ -1733,51 +1959,57 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" s="3" customFormat="1">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1">
@@ -1785,76 +2017,86 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="20" s="3" customFormat="1">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" s="3" customFormat="1">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1">
@@ -1862,28 +2104,28 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>79</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1">
@@ -1891,76 +2133,86 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" s="3" customFormat="1">
       <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" s="3" customFormat="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1">
@@ -1968,26 +2220,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1">
@@ -1995,53 +2249,57 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" s="3" customFormat="1">
       <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1">
@@ -2049,28 +2307,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1">
@@ -2078,28 +2336,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="E30" s="5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1">
@@ -2107,51 +2365,57 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" s="3" customFormat="1">
       <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1">
@@ -2159,76 +2423,86 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" s="3" customFormat="1">
       <c r="A34" s="5">
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" s="3" customFormat="1">
       <c r="A35" s="5">
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1">
@@ -2236,28 +2510,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1">
@@ -2265,53 +2539,57 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" s="3" customFormat="1">
       <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1">
@@ -2319,51 +2597,57 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="G39" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="40" s="3" customFormat="1">
       <c r="A40" s="5">
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" s="3" customFormat="1">
@@ -2371,28 +2655,28 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1">
@@ -2400,28 +2684,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1">
@@ -2429,51 +2713,57 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" s="3" customFormat="1">
       <c r="A44" s="5">
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="G44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" s="3" customFormat="1">
@@ -2481,28 +2771,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1">
@@ -2510,28 +2800,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1">
@@ -2539,80 +2829,66 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>163</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" s="3" customFormat="1">
       <c r="A48" s="5">
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>167</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>169</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" s="3" customFormat="1">
       <c r="A49" s="5">
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2622,101 +2898,115 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" s="3" customFormat="1">
       <c r="A51" s="5">
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="52" s="3" customFormat="1">
       <c r="A52" s="5">
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="53" s="3" customFormat="1">
       <c r="A53" s="5">
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" s="3" customFormat="1">
@@ -2724,82 +3014,82 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="55" s="3" customFormat="1">
       <c r="A55" s="5">
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" s="3" customFormat="1">
       <c r="A56" s="5">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="57" s="3" customFormat="1">
@@ -2807,20 +3097,22 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G57" s="6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -2830,45 +3122,51 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G58" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="59" s="3" customFormat="1">
       <c r="A59" s="5">
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2878,28 +3176,28 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1">
@@ -2907,136 +3205,134 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="62" s="3" customFormat="1">
       <c r="A62" s="5">
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" s="3" customFormat="1">
       <c r="A63" s="5">
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="6"/>
+        <v>237</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G63" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I63" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="64" s="3" customFormat="1">
       <c r="A64" s="5">
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" s="3" customFormat="1">
       <c r="A65" s="5">
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" s="3" customFormat="1">
@@ -3044,115 +3340,97 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" s="3" customFormat="1">
       <c r="A67" s="5">
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" s="3" customFormat="1">
       <c r="A68" s="5">
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>202</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" s="3" customFormat="1">
       <c r="A69" s="5">
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F69" s="6"/>
       <c r="G69" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1">
@@ -3160,57 +3438,53 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" s="3" customFormat="1">
       <c r="A71" s="5">
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" s="3" customFormat="1">
@@ -3218,28 +3492,28 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1">
@@ -3247,28 +3521,28 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" s="3" customFormat="1">
@@ -3276,53 +3550,57 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="6"/>
+        <v>272</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="75" s="3" customFormat="1">
       <c r="A75" s="5">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1">
@@ -3330,28 +3608,28 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1">
@@ -3359,83 +3637,73 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" s="3" customFormat="1">
       <c r="A78" s="5">
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F78" s="6"/>
       <c r="G78" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" s="3" customFormat="1">
       <c r="A79" s="5">
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>17</v>
@@ -3446,141 +3714,123 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" s="3" customFormat="1">
       <c r="A81" s="5">
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" s="3" customFormat="1">
       <c r="A82" s="5">
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" s="3" customFormat="1">
       <c r="A83" s="5">
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>255</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" s="3" customFormat="1">
       <c r="A84" s="5">
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>17</v>
@@ -3591,28 +3841,28 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>302</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1">
@@ -3623,25 +3873,25 @@
         <v>303</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" s="3" customFormat="1">
@@ -3649,140 +3899,132 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>255</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" s="3" customFormat="1">
       <c r="A88" s="5">
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" s="3" customFormat="1">
       <c r="A89" s="5">
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="6"/>
+        <v>310</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G89" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I89" s="6"/>
+        <v>311</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" s="3" customFormat="1">
       <c r="A90" s="5">
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F90" s="6"/>
       <c r="G90" s="6" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>250</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" s="3" customFormat="1">
       <c r="A91" s="5">
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="1">
@@ -3790,28 +4032,28 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1">
@@ -3819,53 +4061,57 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="6"/>
+        <v>325</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G93" s="6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="I93" s="6"/>
+        <v>326</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="94" s="3" customFormat="1">
       <c r="A94" s="5">
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1">
@@ -3873,28 +4119,28 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1">
@@ -3902,78 +4148,86 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="6"/>
+        <v>337</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G96" s="6" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="I96" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="97" s="3" customFormat="1">
       <c r="A97" s="5">
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G97" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="I97" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="98" s="3" customFormat="1">
       <c r="A98" s="5">
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1">
@@ -3981,28 +4235,28 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1">
@@ -4010,28 +4264,28 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1">
@@ -4039,57 +4293,53 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F101" s="6"/>
       <c r="G101" s="6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" s="3" customFormat="1">
       <c r="A102" s="5">
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1">
@@ -4097,28 +4347,28 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1">
@@ -4126,28 +4376,28 @@
         <v>101</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1">
@@ -4155,28 +4405,28 @@
         <v>102</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>373</v>
+        <v>127</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" s="3" customFormat="1">
@@ -4184,28 +4434,28 @@
         <v>103</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" s="3" customFormat="1">
@@ -4213,28 +4463,28 @@
         <v>104</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" s="3" customFormat="1">
@@ -4242,28 +4492,28 @@
         <v>105</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>255</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" s="3" customFormat="1">
@@ -4271,28 +4521,28 @@
         <v>106</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" s="3" customFormat="1">
@@ -4300,28 +4550,28 @@
         <v>107</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" s="3" customFormat="1">
@@ -4329,28 +4579,795 @@
         <v>108</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" s="3" customFormat="1">
+      <c r="A112" s="5">
+        <v>109</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" s="3" customFormat="1">
+      <c r="A113" s="5">
+        <v>110</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="F113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="I113" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" s="3" customFormat="1">
+      <c r="A114" s="5">
+        <v>111</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="C114" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" s="3" customFormat="1">
+      <c r="A115" s="5">
+        <v>112</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="I111" s="6" t="s">
-        <v>255</v>
+      <c r="C115" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" s="3" customFormat="1">
+      <c r="A116" s="5">
+        <v>113</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" s="3" customFormat="1">
+      <c r="A117" s="5">
+        <v>114</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" s="3" customFormat="1">
+      <c r="A118" s="5">
+        <v>115</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" s="3" customFormat="1">
+      <c r="A119" s="5">
+        <v>116</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" s="3" customFormat="1">
+      <c r="A120" s="5">
+        <v>117</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" s="3" customFormat="1">
+      <c r="A121" s="5">
+        <v>118</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" s="3" customFormat="1">
+      <c r="A122" s="5">
+        <v>119</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" s="3" customFormat="1">
+      <c r="A123" s="5">
+        <v>120</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" s="3" customFormat="1">
+      <c r="A124" s="5">
+        <v>121</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" s="3" customFormat="1">
+      <c r="A125" s="5">
+        <v>122</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" s="3" customFormat="1">
+      <c r="A126" s="5">
+        <v>123</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" s="3" customFormat="1">
+      <c r="A127" s="5">
+        <v>124</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" s="3" customFormat="1">
+      <c r="A128" s="5">
+        <v>125</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" s="3" customFormat="1">
+      <c r="A129" s="5">
+        <v>126</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" s="3" customFormat="1">
+      <c r="A130" s="5">
+        <v>127</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" s="3" customFormat="1">
+      <c r="A131" s="5">
+        <v>128</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" s="3" customFormat="1">
+      <c r="A132" s="5">
+        <v>129</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" s="3" customFormat="1">
+      <c r="A133" s="5">
+        <v>130</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" s="3" customFormat="1">
+      <c r="A134" s="5">
+        <v>131</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" s="3" customFormat="1">
+      <c r="A135" s="5">
+        <v>132</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" s="3" customFormat="1">
+      <c r="A136" s="5">
+        <v>133</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" s="3" customFormat="1">
+      <c r="A137" s="5">
+        <v>134</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" s="3" customFormat="1">
+      <c r="A138" s="5">
+        <v>135</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
